--- a/Process/Timesheet/Estimation/HTML_Estimation_Sheet .xlsx
+++ b/Process/Timesheet/Estimation/HTML_Estimation_Sheet .xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25301"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4AAFEE5-380C-4BCC-878D-0A7DCFE6E638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{141890B9-EB0D-47C6-8100-D220F31FAD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="39">
   <si>
     <t>S.No</t>
   </si>
@@ -41,6 +41,9 @@
     <t>Estimation in Hrs</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Login</t>
   </si>
   <si>
@@ -48,6 +51,9 @@
   </si>
   <si>
     <t>HTML preparation</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
   <si>
     <t>HTML Validations</t>
@@ -235,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -547,11 +553,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -581,18 +632,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -641,7 +680,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -672,6 +711,27 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37F5A29-678C-43AE-9144-8C1CF9087D51}">
   <dimension ref="A1:I220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="C214" sqref="C214:D214"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -999,2152 +1059,2407 @@
     <col min="3" max="3" width="48.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="29.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="4"/>
+    <col min="6" max="6" width="22.140625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" s="54" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="24">
+      <c r="F1" s="55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75">
-      <c r="A3" s="24"/>
+        <v>6</v>
+      </c>
+      <c r="D2" s="22">
+        <v>2</v>
+      </c>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="20"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75">
-      <c r="A4" s="24"/>
+        <v>7</v>
+      </c>
+      <c r="D3" s="22">
+        <v>2</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75">
+      <c r="A4" s="20"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="26">
+        <v>9</v>
+      </c>
+      <c r="D4" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75">
-      <c r="A5" s="24"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75">
+      <c r="A5" s="20"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75">
-      <c r="A6" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="22">
+        <v>2</v>
+      </c>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6" s="20"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="D6" s="22">
+        <v>2</v>
+      </c>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="A7" s="20"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="26">
+        <v>12</v>
+      </c>
+      <c r="D7" s="22">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="24"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="A8" s="20"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="24"/>
+        <v>13</v>
+      </c>
+      <c r="D8" s="22">
+        <v>2</v>
+      </c>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75">
+      <c r="A9" s="20"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="26">
+        <v>14</v>
+      </c>
+      <c r="D9" s="22">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75">
-      <c r="A10" s="24"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75">
+      <c r="A10" s="20"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="24"/>
+        <v>15</v>
+      </c>
+      <c r="D10" s="22">
+        <v>2</v>
+      </c>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="20"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="D11" s="22">
+        <v>2</v>
+      </c>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75">
+      <c r="A12" s="20"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="23">
+      <c r="D12" s="19">
         <f>SUM(D2:D11)</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75">
-      <c r="A13" s="24"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="A13" s="20"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="26"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="24">
+      <c r="D13" s="22"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75">
+      <c r="A14" s="20">
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="24"/>
+        <v>6</v>
+      </c>
+      <c r="D14" s="22">
+        <v>2</v>
+      </c>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="20"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75">
-      <c r="A16" s="24"/>
+        <v>7</v>
+      </c>
+      <c r="D15" s="22">
+        <v>2</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75">
+      <c r="A16" s="20"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75">
-      <c r="A17" s="24"/>
+        <v>9</v>
+      </c>
+      <c r="D16" s="22">
+        <v>2</v>
+      </c>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75">
+      <c r="A17" s="20"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="26">
+        <v>10</v>
+      </c>
+      <c r="D17" s="22">
         <v>2</v>
       </c>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="24"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75">
+      <c r="A18" s="20"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75">
-      <c r="A19" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="D18" s="22">
+        <v>2</v>
+      </c>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75">
+      <c r="A19" s="20"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="26">
+        <v>12</v>
+      </c>
+      <c r="D19" s="22">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="24"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75">
+      <c r="A20" s="20"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75">
-      <c r="A21" s="24"/>
+        <v>13</v>
+      </c>
+      <c r="D20" s="22">
+        <v>2</v>
+      </c>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75">
+      <c r="A21" s="20"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="26">
+        <v>14</v>
+      </c>
+      <c r="D21" s="22">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75">
-      <c r="A22" s="24"/>
+      <c r="F21" s="56"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75">
+      <c r="A22" s="20"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="24"/>
+        <v>15</v>
+      </c>
+      <c r="D22" s="22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="56"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75">
+      <c r="A23" s="20"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75">
-      <c r="A24" s="25"/>
+        <v>16</v>
+      </c>
+      <c r="D23" s="22">
+        <v>2</v>
+      </c>
+      <c r="F23" s="56"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75">
+      <c r="A24" s="21"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="22">
+      <c r="D24" s="18">
         <f>SUM(D14:D23)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75">
-      <c r="A25" s="25"/>
+      <c r="F24" s="56"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75">
+      <c r="A25" s="21"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="27"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75">
-      <c r="A26" s="25">
+      <c r="D25" s="23"/>
+      <c r="F25" s="56"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75">
+      <c r="A26" s="21">
         <v>3</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75">
-      <c r="A27" s="25"/>
+        <v>6</v>
+      </c>
+      <c r="D26" s="24">
+        <v>2</v>
+      </c>
+      <c r="F26" s="56"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75">
+      <c r="A27" s="21"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="28">
+        <v>7</v>
+      </c>
+      <c r="D27" s="24">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75">
-      <c r="A28" s="25"/>
+      <c r="F27" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75">
+      <c r="A28" s="21"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="28">
+        <v>9</v>
+      </c>
+      <c r="D28" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75">
-      <c r="A29" s="25"/>
+      <c r="F28" s="56"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75">
+      <c r="A29" s="21"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75">
-      <c r="A30" s="25"/>
+        <v>10</v>
+      </c>
+      <c r="D29" s="24">
+        <v>2</v>
+      </c>
+      <c r="F29" s="56"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75">
+      <c r="A30" s="21"/>
       <c r="B30" s="7"/>
       <c r="C30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="28">
+        <v>11</v>
+      </c>
+      <c r="D30" s="24">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75">
-      <c r="A31" s="25"/>
+      <c r="F30" s="56"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75">
+      <c r="A31" s="21"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="28">
+        <v>12</v>
+      </c>
+      <c r="D31" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75">
-      <c r="A32" s="25"/>
+      <c r="F31" s="56"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75">
+      <c r="A32" s="21"/>
       <c r="B32" s="7"/>
       <c r="C32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="28">
-        <v>2</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D32" s="24">
+        <v>2</v>
+      </c>
+      <c r="F32" s="56"/>
     </row>
     <row r="33" spans="1:8" ht="15.75">
-      <c r="A33" s="25"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="7"/>
       <c r="C33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="28">
+        <v>14</v>
+      </c>
+      <c r="D33" s="24">
         <v>1</v>
       </c>
+      <c r="F33" s="56"/>
     </row>
     <row r="34" spans="1:8" ht="15.75">
-      <c r="A34" s="25"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="7"/>
       <c r="C34" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="28">
-        <v>2</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D34" s="24">
+        <v>2</v>
+      </c>
+      <c r="F34" s="56"/>
     </row>
     <row r="35" spans="1:8" ht="15.75">
-      <c r="A35" s="25"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="7"/>
       <c r="C35" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="28">
+        <v>16</v>
+      </c>
+      <c r="D35" s="24">
         <v>1.5</v>
       </c>
+      <c r="F35" s="56"/>
     </row>
     <row r="36" spans="1:8" ht="15.75">
-      <c r="A36" s="25"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="31">
+      <c r="D36" s="27">
         <f>SUM(D26:D35)</f>
         <v>17</v>
       </c>
+      <c r="F36" s="56"/>
     </row>
     <row r="37" spans="1:8" ht="15.75">
-      <c r="A37" s="25"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="35"/>
+      <c r="D37" s="31"/>
+      <c r="F37" s="56"/>
     </row>
     <row r="38" spans="1:8" ht="15.75">
-      <c r="A38" s="25"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="7"/>
       <c r="C38" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="27">
+        <v>19</v>
+      </c>
+      <c r="D38" s="23">
         <v>9</v>
       </c>
-      <c r="H38" s="37"/>
+      <c r="F38" s="56"/>
+      <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8" ht="15.75">
-      <c r="A39" s="25"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="7"/>
       <c r="C39" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="27">
+        <v>20</v>
+      </c>
+      <c r="D39" s="23">
         <v>7</v>
       </c>
-      <c r="H39" s="37"/>
+      <c r="F39" s="56"/>
+      <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8" ht="15.75">
-      <c r="A40" s="25"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="7"/>
       <c r="C40" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="27">
+        <v>21</v>
+      </c>
+      <c r="D40" s="23">
         <v>5</v>
       </c>
+      <c r="F40" s="56"/>
     </row>
     <row r="41" spans="1:8" ht="15.75">
-      <c r="A41" s="25"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="7"/>
       <c r="C41" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="27">
+        <v>22</v>
+      </c>
+      <c r="D41" s="23">
         <v>6</v>
       </c>
+      <c r="F41" s="56"/>
     </row>
     <row r="42" spans="1:8" ht="15.75">
-      <c r="A42" s="25"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="7"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="32">
+      <c r="D42" s="28">
         <f>SUM(D38:D41)</f>
         <v>27</v>
       </c>
+      <c r="F42" s="56"/>
     </row>
     <row r="43" spans="1:8" ht="15.75">
-      <c r="A43" s="25"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="35"/>
+      <c r="D43" s="31"/>
+      <c r="F43" s="56"/>
     </row>
     <row r="44" spans="1:8" ht="15.75">
-      <c r="A44" s="25">
+      <c r="A44" s="21">
         <v>4</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="28">
+        <v>6</v>
+      </c>
+      <c r="D44" s="24">
         <v>4</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="57"/>
     </row>
     <row r="45" spans="1:8" ht="31.5">
-      <c r="A45" s="25"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="7"/>
-      <c r="C45" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="28">
+      <c r="C45" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="24">
         <v>4</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="56" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="15.75">
-      <c r="A46" s="25"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="7"/>
       <c r="C46" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="28">
+        <v>10</v>
+      </c>
+      <c r="D46" s="24">
         <v>3</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="57"/>
     </row>
     <row r="47" spans="1:8" ht="15.75">
-      <c r="A47" s="25"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="7"/>
       <c r="C47" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="28">
+        <v>11</v>
+      </c>
+      <c r="D47" s="24">
         <v>4</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="57"/>
     </row>
     <row r="48" spans="1:8" ht="15.75">
-      <c r="A48" s="25"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="7"/>
       <c r="C48" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="28">
-        <v>2</v>
-      </c>
-      <c r="F48" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="D48" s="24">
+        <v>2</v>
+      </c>
+      <c r="F48" s="57"/>
     </row>
     <row r="49" spans="1:9" ht="15.75">
-      <c r="A49" s="25"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="7"/>
       <c r="C49" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="28">
+        <v>13</v>
+      </c>
+      <c r="D49" s="24">
         <v>4</v>
       </c>
+      <c r="F49" s="56"/>
     </row>
     <row r="50" spans="1:9" ht="15.75">
-      <c r="A50" s="25"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="7"/>
       <c r="C50" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="28">
-        <v>2</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D50" s="24">
+        <v>2</v>
+      </c>
+      <c r="F50" s="56"/>
     </row>
     <row r="51" spans="1:9" ht="15.75">
-      <c r="A51" s="25"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="28">
-        <v>2</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D51" s="24">
+        <v>2</v>
+      </c>
+      <c r="F51" s="56"/>
     </row>
     <row r="52" spans="1:9" ht="15.75">
-      <c r="A52" s="25"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="7"/>
       <c r="C52" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="28">
+        <v>16</v>
+      </c>
+      <c r="D52" s="24">
         <v>2.5</v>
       </c>
+      <c r="F52" s="56"/>
     </row>
     <row r="53" spans="1:9" ht="15.75">
-      <c r="A53" s="25"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="22">
+      <c r="D53" s="18">
         <f>SUM(D44:D52)</f>
         <v>27.5</v>
       </c>
+      <c r="F53" s="56"/>
     </row>
     <row r="54" spans="1:9" ht="15.75">
-      <c r="A54" s="25"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="27"/>
+      <c r="D54" s="23"/>
+      <c r="F54" s="56"/>
     </row>
     <row r="55" spans="1:9" ht="15.75">
-      <c r="A55" s="25">
+      <c r="A55" s="21">
         <v>5</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="29">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D55" s="25">
+        <v>2</v>
+      </c>
+      <c r="F55" s="56"/>
     </row>
     <row r="56" spans="1:9" ht="15.75">
-      <c r="A56" s="25"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="10"/>
       <c r="C56" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="29">
+        <v>7</v>
+      </c>
+      <c r="D56" s="25">
         <v>4</v>
       </c>
-      <c r="F56" s="9"/>
+      <c r="F56" s="56" t="s">
+        <v>8</v>
+      </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:9" ht="15.75">
-      <c r="A57" s="25"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="10"/>
       <c r="C57" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="29">
-        <v>2</v>
-      </c>
-      <c r="F57" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="D57" s="25">
+        <v>2</v>
+      </c>
+      <c r="F57" s="57"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:9" ht="15.75">
-      <c r="A58" s="25"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="10"/>
       <c r="C58" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="29">
+        <v>11</v>
+      </c>
+      <c r="D58" s="25">
         <v>4</v>
       </c>
-      <c r="F58" s="9"/>
+      <c r="F58" s="57"/>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:9" ht="15.75">
-      <c r="A59" s="25"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="10"/>
       <c r="C59" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="29">
-        <v>2</v>
-      </c>
-      <c r="F59" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="D59" s="25">
+        <v>2</v>
+      </c>
+      <c r="F59" s="57"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:9" ht="15.75">
-      <c r="A60" s="25"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="10"/>
       <c r="C60" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="29">
+        <v>13</v>
+      </c>
+      <c r="D60" s="25">
         <v>4</v>
       </c>
+      <c r="F60" s="56"/>
       <c r="G60" s="15"/>
     </row>
     <row r="61" spans="1:9" ht="15.75">
-      <c r="A61" s="25"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="10"/>
       <c r="C61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="29">
-        <v>2</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D61" s="25">
+        <v>2</v>
+      </c>
+      <c r="F61" s="56"/>
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:9" ht="15.75">
-      <c r="A62" s="25"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="10"/>
       <c r="C62" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="29">
-        <v>2</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D62" s="25">
+        <v>2</v>
+      </c>
+      <c r="F62" s="56"/>
       <c r="I62" s="9"/>
     </row>
     <row r="63" spans="1:9" ht="15.75">
-      <c r="A63" s="25"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="10"/>
       <c r="C63" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="29">
+        <v>16</v>
+      </c>
+      <c r="D63" s="25">
         <v>3</v>
       </c>
+      <c r="F63" s="56"/>
       <c r="I63" s="9"/>
     </row>
     <row r="64" spans="1:9" ht="15.75">
-      <c r="A64" s="25"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="22">
+      <c r="D64" s="18">
         <f>SUM(D55:D63)</f>
         <v>25</v>
       </c>
+      <c r="F64" s="56"/>
       <c r="I64" s="9"/>
     </row>
     <row r="65" spans="1:9" ht="15.75">
-      <c r="A65" s="25"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="27"/>
+      <c r="D65" s="23"/>
+      <c r="F65" s="56"/>
       <c r="I65" s="9"/>
     </row>
     <row r="66" spans="1:9" ht="15.75">
-      <c r="A66" s="25">
+      <c r="A66" s="21">
         <v>6</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="29">
+        <v>6</v>
+      </c>
+      <c r="D66" s="25">
         <v>1</v>
       </c>
+      <c r="F66" s="56"/>
       <c r="I66" s="9"/>
     </row>
     <row r="67" spans="1:9" ht="15.75">
-      <c r="A67" s="25"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="10"/>
       <c r="C67" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="29">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D67" s="25">
+        <v>2</v>
+      </c>
+      <c r="F67" s="56" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75">
-      <c r="A68" s="25"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="10"/>
       <c r="C68" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="29">
+        <v>10</v>
+      </c>
+      <c r="D68" s="25">
         <v>3</v>
       </c>
+      <c r="F68" s="56"/>
     </row>
     <row r="69" spans="1:9" ht="15.75">
-      <c r="A69" s="25"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="10"/>
       <c r="C69" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="29">
+        <v>11</v>
+      </c>
+      <c r="D69" s="25">
         <v>3</v>
       </c>
+      <c r="F69" s="56"/>
     </row>
     <row r="70" spans="1:9" ht="15.75">
-      <c r="A70" s="25"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="10"/>
       <c r="C70" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="29">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D70" s="25">
+        <v>2</v>
+      </c>
+      <c r="F70" s="56"/>
     </row>
     <row r="71" spans="1:9" ht="15.75">
-      <c r="A71" s="25"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="10"/>
       <c r="C71" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="29">
+        <v>13</v>
+      </c>
+      <c r="D71" s="25">
         <v>3</v>
       </c>
+      <c r="F71" s="56"/>
     </row>
     <row r="72" spans="1:9" ht="15.75">
-      <c r="A72" s="25"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="10"/>
       <c r="C72" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="27">
+        <v>14</v>
+      </c>
+      <c r="D72" s="23">
         <v>1</v>
       </c>
+      <c r="F72" s="56"/>
     </row>
     <row r="73" spans="1:9" ht="15.75">
-      <c r="A73" s="25"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="10"/>
       <c r="C73" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" s="27">
-        <v>2</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D73" s="23">
+        <v>2</v>
+      </c>
+      <c r="F73" s="56"/>
     </row>
     <row r="74" spans="1:9" ht="15.75">
-      <c r="A74" s="25"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="10"/>
       <c r="C74" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="27">
+        <v>16</v>
+      </c>
+      <c r="D74" s="23">
         <v>1</v>
       </c>
+      <c r="F74" s="56"/>
     </row>
     <row r="75" spans="1:9" ht="15.75">
-      <c r="A75" s="25"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="22">
+      <c r="D75" s="18">
         <f>SUM(D66:D74)</f>
         <v>18</v>
       </c>
+      <c r="F75" s="56"/>
     </row>
     <row r="76" spans="1:9" ht="15.75">
-      <c r="A76" s="25"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="36"/>
+      <c r="D76" s="32"/>
+      <c r="F76" s="56"/>
     </row>
     <row r="77" spans="1:9" ht="15.75">
-      <c r="A77" s="25"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="5"/>
       <c r="C77" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="27">
+        <v>19</v>
+      </c>
+      <c r="D77" s="23">
         <v>9</v>
       </c>
+      <c r="F77" s="56"/>
     </row>
     <row r="78" spans="1:9" ht="15.75">
-      <c r="A78" s="25"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="5"/>
       <c r="C78" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="27">
+        <v>20</v>
+      </c>
+      <c r="D78" s="23">
         <v>7</v>
       </c>
+      <c r="F78" s="56"/>
     </row>
     <row r="79" spans="1:9" ht="15.75">
-      <c r="A79" s="25"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="5"/>
       <c r="C79" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="27">
+        <v>21</v>
+      </c>
+      <c r="D79" s="23">
         <v>5</v>
       </c>
+      <c r="F79" s="56"/>
     </row>
     <row r="80" spans="1:9" ht="15.75">
-      <c r="A80" s="25"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="5"/>
       <c r="C80" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" s="27">
+        <v>22</v>
+      </c>
+      <c r="D80" s="23">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75">
-      <c r="A81" s="25"/>
+      <c r="F80" s="56"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.75">
+      <c r="A81" s="21"/>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="32">
+      <c r="D81" s="28">
         <f>SUM(D77:D80)</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75">
-      <c r="A82" s="25"/>
+      <c r="F81" s="56"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.75">
+      <c r="A82" s="21"/>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="36"/>
-    </row>
-    <row r="83" spans="1:4" ht="15.75">
-      <c r="A83" s="25">
+      <c r="D82" s="32"/>
+      <c r="F82" s="56"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.75">
+      <c r="A83" s="21">
         <v>7</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="27">
+        <v>6</v>
+      </c>
+      <c r="D83" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75">
-      <c r="A84" s="25"/>
+      <c r="F83" s="56"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.75">
+      <c r="A84" s="21"/>
       <c r="B84" s="5"/>
       <c r="C84" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="27">
+        <v>7</v>
+      </c>
+      <c r="D84" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75">
-      <c r="A85" s="25"/>
+      <c r="F84" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75">
+      <c r="A85" s="21"/>
       <c r="B85" s="5"/>
       <c r="C85" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="27">
+        <v>10</v>
+      </c>
+      <c r="D85" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75">
-      <c r="A86" s="25"/>
+      <c r="F85" s="56"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.75">
+      <c r="A86" s="21"/>
       <c r="B86" s="5"/>
       <c r="C86" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.75">
-      <c r="A87" s="25"/>
+        <v>11</v>
+      </c>
+      <c r="D86" s="23">
+        <v>2</v>
+      </c>
+      <c r="F86" s="56"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.75">
+      <c r="A87" s="21"/>
       <c r="B87" s="5"/>
       <c r="C87" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="27">
+        <v>12</v>
+      </c>
+      <c r="D87" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75">
-      <c r="A88" s="25"/>
+      <c r="F87" s="56"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.75">
+      <c r="A88" s="21"/>
       <c r="B88" s="5"/>
       <c r="C88" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" s="27">
+        <v>13</v>
+      </c>
+      <c r="D88" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75">
-      <c r="A89" s="25"/>
+      <c r="F88" s="56"/>
+    </row>
+    <row r="89" spans="1:6" ht="15.75">
+      <c r="A89" s="21"/>
       <c r="B89" s="5"/>
       <c r="C89" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="27">
+        <v>14</v>
+      </c>
+      <c r="D89" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75">
-      <c r="A90" s="25"/>
+      <c r="F89" s="56"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.75">
+      <c r="A90" s="21"/>
       <c r="B90" s="5"/>
       <c r="C90" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="27">
+        <v>15</v>
+      </c>
+      <c r="D90" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="15.75">
-      <c r="A91" s="25"/>
+      <c r="F90" s="56"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.75">
+      <c r="A91" s="21"/>
       <c r="B91" s="5"/>
       <c r="C91" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="27">
+        <v>16</v>
+      </c>
+      <c r="D91" s="23">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="15.75">
-      <c r="A92" s="25"/>
+      <c r="F91" s="56"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.75">
+      <c r="A92" s="21"/>
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
-      <c r="D92" s="22">
+      <c r="D92" s="18">
         <f>SUM(D83:D91)</f>
         <v>9.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="15.75">
-      <c r="A93" s="25">
+      <c r="F92" s="56"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.75">
+      <c r="A93" s="21">
         <v>8</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D93" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.75">
-      <c r="A94" s="25"/>
+        <v>6</v>
+      </c>
+      <c r="D93" s="25">
+        <v>2</v>
+      </c>
+      <c r="F93" s="56"/>
+    </row>
+    <row r="94" spans="1:6" ht="15.75">
+      <c r="A94" s="21"/>
       <c r="B94" s="10"/>
       <c r="C94" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="29">
+        <v>7</v>
+      </c>
+      <c r="D94" s="25">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="15.75">
-      <c r="A95" s="25"/>
+      <c r="F94" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75">
+      <c r="A95" s="21"/>
       <c r="B95" s="10"/>
       <c r="C95" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="29">
+        <v>9</v>
+      </c>
+      <c r="D95" s="25">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="15.75">
-      <c r="A96" s="25"/>
+      <c r="F95" s="56"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.75">
+      <c r="A96" s="21"/>
       <c r="B96" s="10"/>
       <c r="C96" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15.75">
-      <c r="A97" s="25"/>
+        <v>10</v>
+      </c>
+      <c r="D96" s="25">
+        <v>2</v>
+      </c>
+      <c r="F96" s="56"/>
+    </row>
+    <row r="97" spans="1:6" ht="15.75">
+      <c r="A97" s="21"/>
       <c r="B97" s="10"/>
       <c r="C97" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="29">
+        <v>11</v>
+      </c>
+      <c r="D97" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.75">
-      <c r="A98" s="25"/>
+      <c r="F97" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75">
+      <c r="A98" s="21"/>
       <c r="B98" s="10"/>
       <c r="C98" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15.75">
-      <c r="A99" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="D98" s="25">
+        <v>2</v>
+      </c>
+      <c r="F98" s="56"/>
+    </row>
+    <row r="99" spans="1:6" ht="15.75">
+      <c r="A99" s="21"/>
       <c r="B99" s="10"/>
       <c r="C99" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" s="29">
+        <v>13</v>
+      </c>
+      <c r="D99" s="25">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="15.75">
-      <c r="A100" s="25"/>
+      <c r="F99" s="56"/>
+    </row>
+    <row r="100" spans="1:6" ht="15.75">
+      <c r="A100" s="21"/>
       <c r="B100" s="5"/>
       <c r="C100" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="27">
+        <v>14</v>
+      </c>
+      <c r="D100" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.75">
-      <c r="A101" s="25"/>
+      <c r="F100" s="56"/>
+    </row>
+    <row r="101" spans="1:6" ht="15.75">
+      <c r="A101" s="21"/>
       <c r="B101" s="5"/>
       <c r="C101" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D101" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75">
-      <c r="A102" s="25"/>
+        <v>26</v>
+      </c>
+      <c r="D101" s="23">
+        <v>2</v>
+      </c>
+      <c r="F101" s="56"/>
+    </row>
+    <row r="102" spans="1:6" ht="15.75">
+      <c r="A102" s="21"/>
       <c r="B102" s="5"/>
       <c r="C102" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75">
-      <c r="A103" s="25"/>
+        <v>16</v>
+      </c>
+      <c r="D102" s="23">
+        <v>2</v>
+      </c>
+      <c r="F102" s="56"/>
+    </row>
+    <row r="103" spans="1:6" ht="15.75">
+      <c r="A103" s="21"/>
       <c r="B103" s="5"/>
       <c r="C103" s="6"/>
-      <c r="D103" s="22">
+      <c r="D103" s="18">
         <f>SUM(D93:D102)</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75">
-      <c r="A104" s="25">
+      <c r="F103" s="56"/>
+    </row>
+    <row r="104" spans="1:6" ht="15.75">
+      <c r="A104" s="21">
         <v>9</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15.75">
-      <c r="A105" s="25"/>
+        <v>6</v>
+      </c>
+      <c r="D104" s="25">
+        <v>2</v>
+      </c>
+      <c r="F104" s="56"/>
+    </row>
+    <row r="105" spans="1:6" ht="15.75">
+      <c r="A105" s="21"/>
       <c r="B105" s="10"/>
       <c r="C105" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" s="30">
+        <v>7</v>
+      </c>
+      <c r="D105" s="26">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.75">
-      <c r="A106" s="25"/>
+      <c r="F105" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.75">
+      <c r="A106" s="21"/>
       <c r="B106" s="10"/>
       <c r="C106" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15.75">
-      <c r="A107" s="25"/>
+        <v>9</v>
+      </c>
+      <c r="D106" s="26">
+        <v>2</v>
+      </c>
+      <c r="F106" s="56"/>
+    </row>
+    <row r="107" spans="1:6" ht="15.75">
+      <c r="A107" s="21"/>
       <c r="B107" s="10"/>
       <c r="C107" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15.75">
-      <c r="A108" s="25"/>
+        <v>10</v>
+      </c>
+      <c r="D107" s="25">
+        <v>2</v>
+      </c>
+      <c r="F107" s="56"/>
+    </row>
+    <row r="108" spans="1:6" ht="15.75">
+      <c r="A108" s="21"/>
       <c r="B108" s="10"/>
       <c r="C108" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="29">
+        <v>11</v>
+      </c>
+      <c r="D108" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.75">
-      <c r="A109" s="25"/>
+      <c r="F108" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75">
+      <c r="A109" s="21"/>
       <c r="B109" s="10"/>
       <c r="C109" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D109" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15.75">
-      <c r="A110" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="D109" s="25">
+        <v>2</v>
+      </c>
+      <c r="F109" s="56"/>
+    </row>
+    <row r="110" spans="1:6" ht="15.75">
+      <c r="A110" s="21"/>
       <c r="B110" s="10"/>
       <c r="C110" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" s="29">
+        <v>13</v>
+      </c>
+      <c r="D110" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="15.75">
-      <c r="A111" s="25"/>
+      <c r="F110" s="56"/>
+    </row>
+    <row r="111" spans="1:6" ht="15.75">
+      <c r="A111" s="21"/>
       <c r="B111" s="10"/>
       <c r="C111" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="29">
+        <v>14</v>
+      </c>
+      <c r="D111" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="15.75">
-      <c r="A112" s="25"/>
+      <c r="F111" s="56"/>
+    </row>
+    <row r="112" spans="1:6" ht="15.75">
+      <c r="A112" s="21"/>
       <c r="B112" s="10"/>
       <c r="C112" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D112" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.75">
-      <c r="A113" s="25"/>
+        <v>26</v>
+      </c>
+      <c r="D112" s="25">
+        <v>2</v>
+      </c>
+      <c r="F112" s="56"/>
+    </row>
+    <row r="113" spans="1:6" ht="15.75">
+      <c r="A113" s="21"/>
       <c r="B113" s="10"/>
       <c r="C113" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D113" s="29">
+        <v>16</v>
+      </c>
+      <c r="D113" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="15.75">
-      <c r="A114" s="25"/>
+      <c r="F113" s="56"/>
+    </row>
+    <row r="114" spans="1:6" ht="15.75">
+      <c r="A114" s="21"/>
       <c r="B114" s="10"/>
       <c r="C114" s="11"/>
-      <c r="D114" s="33">
+      <c r="D114" s="29">
         <f>SUM(D104:D113)</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="15.75">
-      <c r="A115" s="25">
+      <c r="F114" s="56"/>
+    </row>
+    <row r="115" spans="1:6" ht="15.75">
+      <c r="A115" s="21">
         <v>10</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D115" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15.75">
-      <c r="A116" s="25"/>
+        <v>6</v>
+      </c>
+      <c r="D115" s="25">
+        <v>2</v>
+      </c>
+      <c r="F115" s="56"/>
+    </row>
+    <row r="116" spans="1:6" ht="15.75">
+      <c r="A116" s="21"/>
       <c r="B116" s="10"/>
       <c r="C116" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D116" s="30">
+        <v>7</v>
+      </c>
+      <c r="D116" s="26">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="15.75">
-      <c r="A117" s="25"/>
+      <c r="F116" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15.75">
+      <c r="A117" s="21"/>
       <c r="B117" s="10"/>
       <c r="C117" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D117" s="30">
+        <v>9</v>
+      </c>
+      <c r="D117" s="26">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="15.75">
-      <c r="A118" s="25"/>
+      <c r="F117" s="56"/>
+    </row>
+    <row r="118" spans="1:6" ht="15.75">
+      <c r="A118" s="21"/>
       <c r="B118" s="10"/>
       <c r="C118" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="15.75">
-      <c r="A119" s="25"/>
+        <v>10</v>
+      </c>
+      <c r="D118" s="25">
+        <v>2</v>
+      </c>
+      <c r="F118" s="56"/>
+    </row>
+    <row r="119" spans="1:6" ht="15.75">
+      <c r="A119" s="21"/>
       <c r="B119" s="10"/>
       <c r="C119" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="29">
+        <v>11</v>
+      </c>
+      <c r="D119" s="25">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="15.75">
-      <c r="A120" s="25"/>
+      <c r="F119" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15.75">
+      <c r="A120" s="21"/>
       <c r="B120" s="10"/>
       <c r="C120" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="15.75">
-      <c r="A121" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="D120" s="25">
+        <v>2</v>
+      </c>
+      <c r="F120" s="56"/>
+    </row>
+    <row r="121" spans="1:6" ht="15.75">
+      <c r="A121" s="21"/>
       <c r="B121" s="10"/>
       <c r="C121" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D121" s="29">
+        <v>13</v>
+      </c>
+      <c r="D121" s="25">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="15.75">
-      <c r="A122" s="25"/>
+      <c r="F121" s="56"/>
+    </row>
+    <row r="122" spans="1:6" ht="15.75">
+      <c r="A122" s="21"/>
       <c r="B122" s="10"/>
       <c r="C122" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="29">
+        <v>14</v>
+      </c>
+      <c r="D122" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="15.75">
-      <c r="A123" s="25"/>
+      <c r="F122" s="56"/>
+    </row>
+    <row r="123" spans="1:6" ht="15.75">
+      <c r="A123" s="21"/>
       <c r="B123" s="5"/>
       <c r="C123" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D123" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="15.75">
-      <c r="A124" s="25"/>
+        <v>26</v>
+      </c>
+      <c r="D123" s="25">
+        <v>2</v>
+      </c>
+      <c r="F123" s="56"/>
+    </row>
+    <row r="124" spans="1:6" ht="15.75">
+      <c r="A124" s="21"/>
       <c r="B124" s="5"/>
       <c r="C124" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="15.75">
-      <c r="A125" s="25"/>
+        <v>16</v>
+      </c>
+      <c r="D124" s="25">
+        <v>2</v>
+      </c>
+      <c r="F124" s="56"/>
+    </row>
+    <row r="125" spans="1:6" ht="15.75">
+      <c r="A125" s="21"/>
       <c r="B125" s="5"/>
       <c r="C125" s="6"/>
-      <c r="D125" s="22">
+      <c r="D125" s="18">
         <f>SUM(D115:D123)</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="15.75">
-      <c r="A126" s="25">
+      <c r="F125" s="56"/>
+    </row>
+    <row r="126" spans="1:6" ht="15.75">
+      <c r="A126" s="21">
         <v>11</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D126" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15.75">
-      <c r="A127" s="25"/>
+        <v>6</v>
+      </c>
+      <c r="D126" s="25">
+        <v>2</v>
+      </c>
+      <c r="F126" s="56"/>
+    </row>
+    <row r="127" spans="1:6" ht="15.75">
+      <c r="A127" s="21"/>
       <c r="B127" s="10"/>
       <c r="C127" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D127" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="15.75">
-      <c r="A128" s="25"/>
+        <v>7</v>
+      </c>
+      <c r="D127" s="25">
+        <v>2</v>
+      </c>
+      <c r="F127" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15.75">
+      <c r="A128" s="21"/>
       <c r="B128" s="10"/>
       <c r="C128" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D128" s="29">
+        <v>9</v>
+      </c>
+      <c r="D128" s="25">
         <v>1</v>
       </c>
+      <c r="F128" s="56"/>
     </row>
     <row r="129" spans="1:9" ht="15.75">
-      <c r="A129" s="25"/>
+      <c r="A129" s="21"/>
       <c r="B129" s="10"/>
       <c r="C129" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="29">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D129" s="25">
+        <v>2</v>
+      </c>
+      <c r="F129" s="56"/>
     </row>
     <row r="130" spans="1:9" ht="15.75">
-      <c r="A130" s="25"/>
+      <c r="A130" s="21"/>
       <c r="B130" s="10"/>
       <c r="C130" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="29">
+        <v>11</v>
+      </c>
+      <c r="D130" s="25">
         <v>3</v>
       </c>
+      <c r="F130" s="56" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="25"/>
+      <c r="A131" s="21"/>
       <c r="B131" s="10"/>
       <c r="C131" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D131" s="29">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D131" s="25">
+        <v>2</v>
+      </c>
+      <c r="F131" s="56"/>
     </row>
     <row r="132" spans="1:9" ht="15.75">
-      <c r="A132" s="25"/>
+      <c r="A132" s="21"/>
       <c r="B132" s="10"/>
       <c r="C132" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D132" s="29">
-        <v>2</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D132" s="25">
+        <v>2</v>
+      </c>
+      <c r="F132" s="56"/>
     </row>
     <row r="133" spans="1:9" ht="15.75">
-      <c r="A133" s="25"/>
+      <c r="A133" s="21"/>
       <c r="B133" s="5"/>
       <c r="C133" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="29">
+        <v>14</v>
+      </c>
+      <c r="D133" s="25">
         <v>1</v>
       </c>
+      <c r="F133" s="56"/>
     </row>
     <row r="134" spans="1:9" ht="15.75">
-      <c r="A134" s="25"/>
+      <c r="A134" s="21"/>
       <c r="B134" s="5"/>
       <c r="C134" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D134" s="29">
-        <v>2</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D134" s="25">
+        <v>2</v>
+      </c>
+      <c r="F134" s="56"/>
     </row>
     <row r="135" spans="1:9" ht="15.75">
-      <c r="A135" s="25"/>
+      <c r="A135" s="21"/>
       <c r="B135" s="5"/>
       <c r="C135" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135" s="29">
-        <v>2</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D135" s="25">
+        <v>2</v>
+      </c>
+      <c r="F135" s="56"/>
     </row>
     <row r="136" spans="1:9" ht="15.75">
-      <c r="A136" s="25"/>
+      <c r="A136" s="21"/>
       <c r="B136" s="5"/>
       <c r="C136" s="6"/>
-      <c r="D136" s="22">
+      <c r="D136" s="18">
         <f>SUM(D126:D135)</f>
         <v>19</v>
       </c>
+      <c r="F136" s="56"/>
     </row>
     <row r="137" spans="1:9" ht="15.75">
-      <c r="A137" s="25">
+      <c r="A137" s="21">
         <v>12</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D137" s="26">
+        <v>6</v>
+      </c>
+      <c r="D137" s="22">
         <v>4</v>
       </c>
+      <c r="F137" s="56"/>
     </row>
     <row r="138" spans="1:9" ht="15.75">
-      <c r="A138" s="25"/>
+      <c r="A138" s="21"/>
       <c r="B138" s="2"/>
       <c r="C138" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D138" s="26">
+        <v>7</v>
+      </c>
+      <c r="D138" s="22">
         <v>3</v>
       </c>
+      <c r="F138" s="56" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="139" spans="1:9" ht="15.75">
-      <c r="A139" s="25"/>
+      <c r="A139" s="21"/>
       <c r="B139" s="2"/>
       <c r="C139" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D139" s="26">
-        <v>2</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D139" s="22">
+        <v>2</v>
+      </c>
+      <c r="F139" s="56"/>
     </row>
     <row r="140" spans="1:9" ht="15.75">
-      <c r="A140" s="25"/>
+      <c r="A140" s="21"/>
       <c r="B140" s="2"/>
       <c r="C140" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" s="26">
+        <v>10</v>
+      </c>
+      <c r="D140" s="22">
         <v>3</v>
       </c>
+      <c r="F140" s="56"/>
     </row>
     <row r="141" spans="1:9" ht="15.75">
-      <c r="A141" s="25"/>
+      <c r="A141" s="21"/>
       <c r="B141" s="2"/>
       <c r="C141" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="26">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="D141" s="22">
+        <v>2</v>
+      </c>
+      <c r="F141" s="56" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15.75">
-      <c r="A142" s="25"/>
+      <c r="A142" s="21"/>
       <c r="B142" s="2"/>
       <c r="C142" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D142" s="26">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D142" s="22">
+        <v>2</v>
+      </c>
+      <c r="F142" s="56"/>
       <c r="I142" s="13"/>
     </row>
     <row r="143" spans="1:9" ht="15.75">
-      <c r="A143" s="25"/>
+      <c r="A143" s="21"/>
       <c r="B143" s="2"/>
       <c r="C143" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D143" s="26">
+        <v>13</v>
+      </c>
+      <c r="D143" s="22">
         <v>3</v>
       </c>
+      <c r="F143" s="56"/>
     </row>
     <row r="144" spans="1:9" ht="15.75">
-      <c r="A144" s="25"/>
+      <c r="A144" s="21"/>
       <c r="B144" s="2"/>
       <c r="C144" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="26">
-        <v>2</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D144" s="22">
+        <v>2</v>
+      </c>
+      <c r="F144" s="56"/>
       <c r="I144" s="9"/>
     </row>
     <row r="145" spans="1:9" ht="15.75">
-      <c r="A145" s="25"/>
+      <c r="A145" s="21"/>
       <c r="B145" s="2"/>
       <c r="C145" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D145" s="26">
-        <v>2</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D145" s="22">
+        <v>2</v>
+      </c>
+      <c r="F145" s="56"/>
     </row>
     <row r="146" spans="1:9" ht="15.75">
-      <c r="A146" s="25"/>
+      <c r="A146" s="21"/>
       <c r="B146" s="2"/>
       <c r="C146" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" s="26">
-        <v>2</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D146" s="22">
+        <v>2</v>
+      </c>
+      <c r="F146" s="56"/>
     </row>
     <row r="147" spans="1:9" ht="15.75">
-      <c r="A147" s="25"/>
+      <c r="A147" s="21"/>
       <c r="B147" s="5"/>
       <c r="C147" s="6"/>
-      <c r="D147" s="22">
+      <c r="D147" s="18">
         <f>SUM(D137:D146)</f>
         <v>25</v>
       </c>
+      <c r="F147" s="56"/>
     </row>
     <row r="148" spans="1:9" ht="15.75">
-      <c r="A148" s="25"/>
+      <c r="A148" s="21"/>
       <c r="B148" s="5"/>
       <c r="C148" s="6"/>
-      <c r="D148" s="27"/>
+      <c r="D148" s="23"/>
+      <c r="F148" s="56"/>
     </row>
     <row r="149" spans="1:9" ht="15.75">
-      <c r="A149" s="25"/>
+      <c r="A149" s="21"/>
       <c r="B149" s="5"/>
       <c r="C149" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D149" s="27">
+        <v>19</v>
+      </c>
+      <c r="D149" s="23">
         <v>5</v>
       </c>
+      <c r="F149" s="56"/>
     </row>
     <row r="150" spans="1:9" ht="15.75">
-      <c r="A150" s="25"/>
+      <c r="A150" s="21"/>
       <c r="B150" s="5"/>
       <c r="C150" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D150" s="27">
+        <v>20</v>
+      </c>
+      <c r="D150" s="23">
         <v>4</v>
       </c>
+      <c r="F150" s="56"/>
       <c r="I150" s="15"/>
     </row>
     <row r="151" spans="1:9" ht="15.75">
-      <c r="A151" s="25"/>
+      <c r="A151" s="21"/>
       <c r="B151" s="5"/>
       <c r="C151" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D151" s="27">
+        <v>21</v>
+      </c>
+      <c r="D151" s="23">
         <v>4</v>
       </c>
+      <c r="F151" s="56"/>
     </row>
     <row r="152" spans="1:9" ht="15.75">
-      <c r="A152" s="25"/>
+      <c r="A152" s="21"/>
       <c r="B152" s="5"/>
       <c r="C152" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D152" s="27">
+        <v>22</v>
+      </c>
+      <c r="D152" s="23">
         <v>4</v>
       </c>
+      <c r="F152" s="56"/>
       <c r="I152" s="16"/>
     </row>
     <row r="153" spans="1:9" ht="15.75">
-      <c r="A153" s="25"/>
+      <c r="A153" s="21"/>
       <c r="B153" s="5"/>
       <c r="C153" s="8"/>
-      <c r="D153" s="32">
+      <c r="D153" s="28">
         <f>SUM(D149:D152)</f>
         <v>17</v>
       </c>
+      <c r="F153" s="56"/>
     </row>
     <row r="154" spans="1:9" ht="15.75">
-      <c r="A154" s="25"/>
+      <c r="A154" s="21"/>
       <c r="B154" s="5"/>
       <c r="C154" s="8"/>
-      <c r="D154" s="27"/>
+      <c r="D154" s="23"/>
+      <c r="F154" s="56"/>
     </row>
     <row r="155" spans="1:9" ht="15.75">
-      <c r="A155" s="25">
+      <c r="A155" s="21">
         <v>13</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D155" s="26">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D155" s="22">
+        <v>2</v>
+      </c>
+      <c r="F155" s="56"/>
     </row>
     <row r="156" spans="1:9" ht="15.75">
-      <c r="A156" s="25"/>
+      <c r="A156" s="21"/>
       <c r="B156" s="2"/>
       <c r="C156" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D156" s="26">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D156" s="22">
+        <v>2</v>
+      </c>
+      <c r="F156" s="56" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="15.75">
-      <c r="A157" s="25"/>
+      <c r="A157" s="21"/>
       <c r="B157" s="2"/>
       <c r="C157" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D157" s="26">
-        <v>2</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D157" s="22">
+        <v>2</v>
+      </c>
+      <c r="F157" s="56"/>
       <c r="I157" s="17"/>
     </row>
     <row r="158" spans="1:9" ht="15.75">
-      <c r="A158" s="25"/>
+      <c r="A158" s="21"/>
       <c r="B158" s="2"/>
       <c r="C158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="22">
+        <v>2</v>
+      </c>
+      <c r="F158" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D158" s="26">
-        <v>2</v>
-      </c>
     </row>
     <row r="159" spans="1:9" ht="15.75">
-      <c r="A159" s="25"/>
+      <c r="A159" s="21"/>
       <c r="B159" s="2"/>
       <c r="C159" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="26">
+        <v>11</v>
+      </c>
+      <c r="D159" s="22">
         <v>3</v>
       </c>
+      <c r="F159" s="56" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="160" spans="1:9" ht="15.75">
-      <c r="A160" s="25"/>
+      <c r="A160" s="21"/>
       <c r="B160" s="2"/>
       <c r="C160" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D160" s="26">
+        <v>12</v>
+      </c>
+      <c r="D160" s="22">
         <v>1</v>
       </c>
+      <c r="F160" s="56"/>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:4" ht="15.75">
-      <c r="A161" s="25"/>
+    <row r="161" spans="1:6" ht="15.75">
+      <c r="A161" s="21"/>
       <c r="B161" s="2"/>
       <c r="C161" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D161" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15.75">
-      <c r="A162" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="D161" s="22">
+        <v>2</v>
+      </c>
+      <c r="F161" s="56"/>
+    </row>
+    <row r="162" spans="1:6" ht="15.75">
+      <c r="A162" s="21"/>
       <c r="B162" s="2"/>
       <c r="C162" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D162" s="26">
+        <v>14</v>
+      </c>
+      <c r="D162" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" ht="15.75">
-      <c r="A163" s="25"/>
+      <c r="F162" s="56"/>
+    </row>
+    <row r="163" spans="1:6" ht="15.75">
+      <c r="A163" s="21"/>
       <c r="B163" s="2"/>
       <c r="C163" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D163" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="15.75">
-      <c r="A164" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="D163" s="22">
+        <v>2</v>
+      </c>
+      <c r="F163" s="56"/>
+    </row>
+    <row r="164" spans="1:6" ht="15.75">
+      <c r="A164" s="21"/>
       <c r="B164" s="2"/>
       <c r="C164" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D164" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="15.75">
-      <c r="A165" s="25"/>
+        <v>16</v>
+      </c>
+      <c r="D164" s="22">
+        <v>2</v>
+      </c>
+      <c r="F164" s="56"/>
+    </row>
+    <row r="165" spans="1:6" ht="15.75">
+      <c r="A165" s="21"/>
       <c r="B165" s="2"/>
       <c r="C165" s="3"/>
-      <c r="D165" s="23">
+      <c r="D165" s="19">
         <f>SUM(D155:D164)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" ht="15.75">
-      <c r="A166" s="25"/>
+      <c r="F165" s="56"/>
+    </row>
+    <row r="166" spans="1:6" ht="15.75">
+      <c r="A166" s="21"/>
       <c r="B166" s="2"/>
       <c r="C166" s="3"/>
-      <c r="D166" s="39"/>
-    </row>
-    <row r="167" spans="1:4" ht="15.75">
-      <c r="A167" s="25">
+      <c r="D166" s="35"/>
+      <c r="F166" s="56"/>
+    </row>
+    <row r="167" spans="1:6" ht="15.75">
+      <c r="A167" s="21">
         <v>14</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D167" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="15.75">
-      <c r="A168" s="25"/>
+        <v>6</v>
+      </c>
+      <c r="D167" s="22">
+        <v>2</v>
+      </c>
+      <c r="F167" s="56"/>
+    </row>
+    <row r="168" spans="1:6" ht="15.75">
+      <c r="A168" s="21"/>
       <c r="B168" s="2"/>
       <c r="C168" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D168" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="15.75">
-      <c r="A169" s="25"/>
+        <v>7</v>
+      </c>
+      <c r="D168" s="22">
+        <v>2</v>
+      </c>
+      <c r="F168" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="15.75">
+      <c r="A169" s="21"/>
       <c r="B169" s="2"/>
       <c r="C169" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D169" s="26">
+        <v>9</v>
+      </c>
+      <c r="D169" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" ht="15.75">
-      <c r="A170" s="25"/>
+      <c r="F169" s="56"/>
+    </row>
+    <row r="170" spans="1:6" ht="15.75">
+      <c r="A170" s="21"/>
       <c r="B170" s="2"/>
       <c r="C170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" s="22">
+        <v>2</v>
+      </c>
+      <c r="F170" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D170" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="15.75">
-      <c r="A171" s="25"/>
+    </row>
+    <row r="171" spans="1:6" ht="15.75">
+      <c r="A171" s="21"/>
       <c r="B171" s="2"/>
       <c r="C171" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="26">
+        <v>11</v>
+      </c>
+      <c r="D171" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" ht="15.75">
-      <c r="A172" s="25"/>
+      <c r="F171" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="15.75">
+      <c r="A172" s="21"/>
       <c r="B172" s="2"/>
       <c r="C172" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D172" s="26">
+        <v>12</v>
+      </c>
+      <c r="D172" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" ht="15.75">
-      <c r="A173" s="25"/>
+      <c r="F172" s="56"/>
+    </row>
+    <row r="173" spans="1:6" ht="15.75">
+      <c r="A173" s="21"/>
       <c r="B173" s="2"/>
       <c r="C173" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D173" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="15.75">
-      <c r="A174" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="D173" s="22">
+        <v>2</v>
+      </c>
+      <c r="F173" s="56"/>
+    </row>
+    <row r="174" spans="1:6" ht="15.75">
+      <c r="A174" s="21"/>
       <c r="B174" s="2"/>
       <c r="C174" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174" s="26">
+        <v>14</v>
+      </c>
+      <c r="D174" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" ht="15.75">
-      <c r="A175" s="25"/>
+      <c r="F174" s="56"/>
+    </row>
+    <row r="175" spans="1:6" ht="15.75">
+      <c r="A175" s="21"/>
       <c r="B175" s="2"/>
       <c r="C175" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D175" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="15.75">
-      <c r="A176" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="D175" s="22">
+        <v>2</v>
+      </c>
+      <c r="F175" s="56"/>
+    </row>
+    <row r="176" spans="1:6" ht="15.75">
+      <c r="A176" s="21"/>
       <c r="B176" s="2"/>
       <c r="C176" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D176" s="26">
+        <v>16</v>
+      </c>
+      <c r="D176" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" ht="15.75">
-      <c r="A177" s="25"/>
+      <c r="F176" s="56"/>
+    </row>
+    <row r="177" spans="1:6" ht="15.75">
+      <c r="A177" s="21"/>
       <c r="B177" s="2"/>
       <c r="C177" s="3"/>
-      <c r="D177" s="23">
+      <c r="D177" s="19">
         <f>SUM(D167:D176)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" ht="15.75">
-      <c r="A178" s="25"/>
+      <c r="F177" s="56"/>
+    </row>
+    <row r="178" spans="1:6" ht="15.75">
+      <c r="A178" s="21"/>
       <c r="B178" s="5"/>
       <c r="C178" s="6"/>
-      <c r="D178" s="27"/>
-    </row>
-    <row r="179" spans="1:4" ht="15.75">
-      <c r="A179" s="25"/>
+      <c r="D178" s="23"/>
+      <c r="F178" s="56"/>
+    </row>
+    <row r="179" spans="1:6" ht="15.75">
+      <c r="A179" s="21"/>
       <c r="B179" s="5"/>
       <c r="C179" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D179" s="27">
+        <v>19</v>
+      </c>
+      <c r="D179" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" ht="15.75">
-      <c r="A180" s="25"/>
+      <c r="F179" s="56"/>
+    </row>
+    <row r="180" spans="1:6" ht="15.75">
+      <c r="A180" s="21"/>
       <c r="B180" s="5"/>
       <c r="C180" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D180" s="27">
+        <v>20</v>
+      </c>
+      <c r="D180" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" ht="15.75">
-      <c r="A181" s="25"/>
+      <c r="F180" s="56"/>
+    </row>
+    <row r="181" spans="1:6" ht="15.75">
+      <c r="A181" s="21"/>
       <c r="B181" s="5"/>
       <c r="C181" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D181" s="27">
+        <v>21</v>
+      </c>
+      <c r="D181" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" ht="15.75">
-      <c r="A182" s="25"/>
+      <c r="F181" s="56"/>
+    </row>
+    <row r="182" spans="1:6" ht="15.75">
+      <c r="A182" s="21"/>
       <c r="B182" s="5"/>
       <c r="C182" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D182" s="27">
+        <v>22</v>
+      </c>
+      <c r="D182" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" ht="15.75">
-      <c r="A183" s="25"/>
+      <c r="F182" s="56"/>
+    </row>
+    <row r="183" spans="1:6" ht="15.75">
+      <c r="A183" s="21"/>
       <c r="B183" s="5"/>
       <c r="C183" s="6"/>
-      <c r="D183" s="32">
+      <c r="D183" s="28">
         <f>SUM(D179:D182)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" ht="15.75">
-      <c r="A184" s="25"/>
+      <c r="F183" s="56"/>
+    </row>
+    <row r="184" spans="1:6" ht="15.75">
+      <c r="A184" s="21"/>
       <c r="B184" s="5"/>
       <c r="C184" s="6"/>
-      <c r="D184" s="27"/>
-    </row>
-    <row r="185" spans="1:4" ht="15.75">
-      <c r="A185" s="25">
+      <c r="D184" s="23"/>
+      <c r="F184" s="56"/>
+    </row>
+    <row r="185" spans="1:6" ht="15.75">
+      <c r="A185" s="21">
         <v>14</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D185" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="15.75">
-      <c r="A186" s="25"/>
+        <v>6</v>
+      </c>
+      <c r="D185" s="22">
+        <v>2</v>
+      </c>
+      <c r="F185" s="56"/>
+    </row>
+    <row r="186" spans="1:6" ht="15.75">
+      <c r="A186" s="21"/>
       <c r="B186" s="2"/>
       <c r="C186" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D186" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="15.75">
-      <c r="A187" s="25"/>
+        <v>7</v>
+      </c>
+      <c r="D186" s="22">
+        <v>2</v>
+      </c>
+      <c r="F186" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15.75">
+      <c r="A187" s="21"/>
       <c r="B187" s="2"/>
       <c r="C187" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187" s="26">
+        <v>10</v>
+      </c>
+      <c r="D187" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" ht="15.75">
-      <c r="A188" s="25"/>
+      <c r="F187" s="56"/>
+    </row>
+    <row r="188" spans="1:6" ht="15.75">
+      <c r="A188" s="21"/>
       <c r="B188" s="2"/>
       <c r="C188" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="26">
+        <v>11</v>
+      </c>
+      <c r="D188" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" ht="15.75">
-      <c r="A189" s="25"/>
+      <c r="F188" s="56"/>
+    </row>
+    <row r="189" spans="1:6" ht="15.75">
+      <c r="A189" s="21"/>
       <c r="B189" s="2"/>
       <c r="C189" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D189" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="15.75">
-      <c r="A190" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="D189" s="22">
+        <v>2</v>
+      </c>
+      <c r="F189" s="56"/>
+    </row>
+    <row r="190" spans="1:6" ht="15.75">
+      <c r="A190" s="21"/>
       <c r="B190" s="2"/>
       <c r="C190" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D190" s="26">
+        <v>13</v>
+      </c>
+      <c r="D190" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="15.75">
-      <c r="A191" s="25"/>
+      <c r="F190" s="56"/>
+    </row>
+    <row r="191" spans="1:6" ht="15.75">
+      <c r="A191" s="21"/>
       <c r="B191" s="2"/>
       <c r="C191" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D191" s="26">
+        <v>14</v>
+      </c>
+      <c r="D191" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" ht="15.75">
-      <c r="A192" s="25"/>
+      <c r="F191" s="56"/>
+    </row>
+    <row r="192" spans="1:6" ht="15.75">
+      <c r="A192" s="21"/>
       <c r="B192" s="2"/>
       <c r="C192" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D192" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="15.75">
-      <c r="A193" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="D192" s="22">
+        <v>2</v>
+      </c>
+      <c r="F192" s="56"/>
+    </row>
+    <row r="193" spans="1:6" ht="15.75">
+      <c r="A193" s="21"/>
       <c r="B193" s="2"/>
       <c r="C193" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D193" s="26">
+        <v>16</v>
+      </c>
+      <c r="D193" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" ht="15.75">
-      <c r="A194" s="25"/>
+      <c r="F193" s="56"/>
+    </row>
+    <row r="194" spans="1:6" ht="15.75">
+      <c r="A194" s="21"/>
       <c r="B194" s="2"/>
       <c r="C194" s="3"/>
-      <c r="D194" s="23">
+      <c r="D194" s="19">
         <f>SUM(D185:D193)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" ht="15.75">
-      <c r="A195" s="25"/>
+      <c r="F194" s="56"/>
+    </row>
+    <row r="195" spans="1:6" ht="15.75">
+      <c r="A195" s="21"/>
       <c r="B195" s="5"/>
-      <c r="C195" s="34"/>
-      <c r="D195" s="27"/>
-    </row>
-    <row r="196" spans="1:4" ht="15.75">
-      <c r="A196" s="25">
+      <c r="C195" s="30"/>
+      <c r="D195" s="23"/>
+      <c r="F195" s="56"/>
+    </row>
+    <row r="196" spans="1:6" ht="15.75">
+      <c r="A196" s="21">
         <v>15</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D196" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="15.75">
-      <c r="A197" s="25"/>
+        <v>6</v>
+      </c>
+      <c r="D196" s="22">
+        <v>2</v>
+      </c>
+      <c r="F196" s="56"/>
+    </row>
+    <row r="197" spans="1:6" ht="15.75">
+      <c r="A197" s="21"/>
       <c r="B197" s="2"/>
       <c r="C197" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D197" s="26">
+        <v>7</v>
+      </c>
+      <c r="D197" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" ht="15.75">
-      <c r="A198" s="25"/>
+      <c r="F197" s="56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="15.75">
+      <c r="A198" s="21"/>
       <c r="B198" s="2"/>
       <c r="C198" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D198" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="15.75">
-      <c r="A199" s="25"/>
+        <v>10</v>
+      </c>
+      <c r="D198" s="22">
+        <v>2</v>
+      </c>
+      <c r="F198" s="56"/>
+    </row>
+    <row r="199" spans="1:6" ht="15.75">
+      <c r="A199" s="21"/>
       <c r="B199" s="2"/>
       <c r="C199" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="15.75">
-      <c r="A200" s="25"/>
+        <v>11</v>
+      </c>
+      <c r="D199" s="22">
+        <v>2</v>
+      </c>
+      <c r="F199" s="56"/>
+    </row>
+    <row r="200" spans="1:6" ht="15.75">
+      <c r="A200" s="21"/>
       <c r="B200" s="2"/>
       <c r="C200" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D200" s="26">
+        <v>12</v>
+      </c>
+      <c r="D200" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" ht="15.75">
-      <c r="A201" s="25"/>
+      <c r="F200" s="56"/>
+    </row>
+    <row r="201" spans="1:6" ht="15.75">
+      <c r="A201" s="21"/>
       <c r="B201" s="2"/>
       <c r="C201" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D201" s="26">
+        <v>13</v>
+      </c>
+      <c r="D201" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" ht="15.75">
-      <c r="A202" s="25"/>
+      <c r="F201" s="56"/>
+    </row>
+    <row r="202" spans="1:6" ht="15.75">
+      <c r="A202" s="21"/>
       <c r="B202" s="2"/>
       <c r="C202" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D202" s="26">
+        <v>14</v>
+      </c>
+      <c r="D202" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" ht="15.75">
-      <c r="A203" s="25"/>
+      <c r="F202" s="56"/>
+    </row>
+    <row r="203" spans="1:6" ht="15.75">
+      <c r="A203" s="21"/>
       <c r="B203" s="2"/>
       <c r="C203" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D203" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="15.75">
-      <c r="A204" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="D203" s="22">
+        <v>2</v>
+      </c>
+      <c r="F203" s="56"/>
+    </row>
+    <row r="204" spans="1:6" ht="15.75">
+      <c r="A204" s="21"/>
       <c r="B204" s="2"/>
       <c r="C204" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D204" s="26">
+        <v>16</v>
+      </c>
+      <c r="D204" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" ht="15.75">
-      <c r="A205" s="40"/>
-      <c r="B205" s="41"/>
-      <c r="C205" s="42"/>
-      <c r="D205" s="43">
+      <c r="F204" s="56"/>
+    </row>
+    <row r="205" spans="1:6" ht="15.75">
+      <c r="A205" s="36"/>
+      <c r="B205" s="37"/>
+      <c r="C205" s="38"/>
+      <c r="D205" s="39">
         <f>SUM(D196:D204)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" ht="15.75">
-      <c r="A206" s="25"/>
+      <c r="F205" s="56"/>
+    </row>
+    <row r="206" spans="1:6" ht="15.75">
+      <c r="A206" s="21"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
-      <c r="D206" s="27"/>
-    </row>
-    <row r="207" spans="1:4" ht="15.75">
-      <c r="A207" s="44"/>
-      <c r="B207" s="45"/>
-      <c r="C207" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="D207" s="47">
+      <c r="D206" s="23"/>
+      <c r="F206" s="56"/>
+    </row>
+    <row r="207" spans="1:6" ht="15.75">
+      <c r="A207" s="40"/>
+      <c r="B207" s="41"/>
+      <c r="C207" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D207" s="43">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" ht="15.75">
-      <c r="A208" s="25"/>
+      <c r="F207" s="56"/>
+    </row>
+    <row r="208" spans="1:6" ht="15.75">
+      <c r="A208" s="21"/>
       <c r="B208" s="5"/>
       <c r="C208" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D208" s="27">
+        <v>20</v>
+      </c>
+      <c r="D208" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" ht="15.75">
-      <c r="A209" s="25"/>
+      <c r="F208" s="56"/>
+    </row>
+    <row r="209" spans="1:6" ht="15.75">
+      <c r="A209" s="21"/>
       <c r="B209" s="5"/>
       <c r="C209" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D209" s="27">
+        <v>21</v>
+      </c>
+      <c r="D209" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" ht="15.75">
-      <c r="A210" s="25"/>
+      <c r="F209" s="56"/>
+    </row>
+    <row r="210" spans="1:6" ht="15.75">
+      <c r="A210" s="21"/>
       <c r="B210" s="5"/>
       <c r="C210" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D210" s="27">
+        <v>22</v>
+      </c>
+      <c r="D210" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" ht="15.75">
-      <c r="A211" s="48"/>
-      <c r="B211" s="49"/>
-      <c r="C211" s="50"/>
-      <c r="D211" s="51">
+      <c r="F210" s="56"/>
+    </row>
+    <row r="211" spans="1:6" ht="15.75">
+      <c r="A211" s="44"/>
+      <c r="B211" s="45"/>
+      <c r="C211" s="46"/>
+      <c r="D211" s="47">
         <f>SUM(D207:D210)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" ht="15.75"/>
-    <row r="213" spans="1:4" ht="15.75"/>
-    <row r="214" spans="1:4" ht="15.75">
-      <c r="C214" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D214" s="53">
+      <c r="F211" s="58"/>
+    </row>
+    <row r="212" spans="1:6" ht="15.75"/>
+    <row r="213" spans="1:6" ht="15.75"/>
+    <row r="214" spans="1:6" ht="15.75">
+      <c r="C214" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D214" s="49">
         <f>SUM(D211,D205,D194,D183,D177,D165,D153,D147,D136,D125,D114,D103,D92,D81,D75,D64,D53,D42,D36,D24,D12)</f>
         <v>425</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15.75"/>
-    <row r="216" spans="1:4" ht="15.75"/>
-    <row r="217" spans="1:4" ht="15.75"/>
-    <row r="218" spans="1:4" ht="15.75"/>
-    <row r="219" spans="1:4" ht="15.75"/>
-    <row r="220" spans="1:4" ht="15.75"/>
+    <row r="215" spans="1:6" ht="15.75"/>
+    <row r="216" spans="1:6" ht="15.75"/>
+    <row r="217" spans="1:6" ht="15.75"/>
+    <row r="218" spans="1:6" ht="15.75"/>
+    <row r="219" spans="1:6" ht="15.75"/>
+    <row r="220" spans="1:6" ht="15.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
